--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Parker.Spring.011320.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Parker.Spring.011320.xlsx_with_dialog_acts.xlsx
@@ -765,12 +765,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2365,12 +2365,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2579,12 +2579,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3041,12 +3041,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3125,12 +3125,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3251,12 +3251,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3419,12 +3419,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3503,12 +3503,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3931,12 +3931,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4439,12 +4439,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4481,12 +4481,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4733,12 +4733,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4905,12 +4905,12 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5119,12 +5119,12 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5665,12 +5665,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5921,12 +5921,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6299,12 +6299,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7017,12 +7017,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7143,12 +7143,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7269,12 +7269,12 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7563,12 +7563,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7731,12 +7731,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8361,12 +8361,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8403,12 +8403,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8655,12 +8655,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8865,12 +8865,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9453,12 +9453,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10083,12 +10083,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11221,12 +11221,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11977,12 +11977,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12061,12 +12061,12 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -12103,12 +12103,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12313,12 +12313,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12359,12 +12359,12 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12779,12 +12779,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13161,12 +13161,12 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13749,12 +13749,12 @@
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14337,12 +14337,12 @@
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14373,12 +14373,12 @@
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14793,12 +14793,12 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14919,12 +14919,12 @@
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15885,12 +15885,12 @@
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16095,12 +16095,12 @@
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16893,12 +16893,12 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17481,12 +17481,12 @@
       <c r="H405" t="inlineStr"/>
       <c r="I405" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18195,12 +18195,12 @@
       <c r="H422" t="inlineStr"/>
       <c r="I422" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18321,12 +18321,12 @@
       <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18489,12 +18489,12 @@
       <c r="H429" t="inlineStr"/>
       <c r="I429" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18783,12 +18783,12 @@
       <c r="H436" t="inlineStr"/>
       <c r="I436" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19959,12 +19959,12 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20673,12 +20673,12 @@
       <c r="H481" t="inlineStr"/>
       <c r="I481" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20841,12 +20841,12 @@
       <c r="H485" t="inlineStr"/>
       <c r="I485" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21601,12 +21601,12 @@
       <c r="H503" t="inlineStr"/>
       <c r="I503" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21643,12 +21643,12 @@
       <c r="H504" t="inlineStr"/>
       <c r="I504" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21811,12 +21811,12 @@
       <c r="H508" t="inlineStr"/>
       <c r="I508" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21937,12 +21937,12 @@
       <c r="H511" t="inlineStr"/>
       <c r="I511" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22151,12 +22151,12 @@
       <c r="H516" t="inlineStr"/>
       <c r="I516" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22403,12 +22403,12 @@
       <c r="H522" t="inlineStr"/>
       <c r="I522" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23167,12 +23167,12 @@
       <c r="H540" t="inlineStr"/>
       <c r="I540" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23461,12 +23461,12 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23545,12 +23545,12 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24809,12 +24809,12 @@
       <c r="H579" t="inlineStr"/>
       <c r="I579" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24935,12 +24935,12 @@
       <c r="H582" t="inlineStr"/>
       <c r="I582" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25103,12 +25103,12 @@
       <c r="H586" t="inlineStr"/>
       <c r="I586" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25901,12 +25901,12 @@
       <c r="H605" t="inlineStr"/>
       <c r="I605" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26825,12 +26825,12 @@
       <c r="H627" t="inlineStr"/>
       <c r="I627" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27035,12 +27035,12 @@
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -27119,12 +27119,12 @@
       <c r="H634" t="inlineStr"/>
       <c r="I634" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -28383,12 +28383,12 @@
       <c r="H664" t="inlineStr"/>
       <c r="I664" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28887,12 +28887,12 @@
       <c r="H676" t="inlineStr"/>
       <c r="I676" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29307,12 +29307,12 @@
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29433,12 +29433,12 @@
       <c r="H689" t="inlineStr"/>
       <c r="I689" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J689" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29685,12 +29685,12 @@
       <c r="H695" t="inlineStr"/>
       <c r="I695" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J695" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -29895,12 +29895,12 @@
       <c r="H700" t="inlineStr"/>
       <c r="I700" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J700" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -30147,12 +30147,12 @@
       <c r="H706" t="inlineStr"/>
       <c r="I706" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30357,12 +30357,12 @@
       <c r="H711" t="inlineStr"/>
       <c r="I711" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31117,12 +31117,12 @@
       <c r="H729" t="inlineStr"/>
       <c r="I729" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J729" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31243,12 +31243,12 @@
       <c r="H732" t="inlineStr"/>
       <c r="I732" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J732" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31285,12 +31285,12 @@
       <c r="H733" t="inlineStr"/>
       <c r="I733" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J733" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32545,12 +32545,12 @@
       <c r="H763" t="inlineStr"/>
       <c r="I763" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J763" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33393,12 +33393,12 @@
       <c r="H783" t="inlineStr"/>
       <c r="I783" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J783" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34577,12 +34577,12 @@
       <c r="H811" t="inlineStr"/>
       <c r="I811" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J811" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -35165,12 +35165,12 @@
       <c r="H825" t="inlineStr"/>
       <c r="I825" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J825" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -37097,12 +37097,12 @@
       </c>
       <c r="I871" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J871" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -37731,12 +37731,12 @@
       </c>
       <c r="I886" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J886" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -37861,12 +37861,12 @@
       </c>
       <c r="I889" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J889" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37903,12 +37903,12 @@
       <c r="H890" t="inlineStr"/>
       <c r="I890" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J890" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37987,12 +37987,12 @@
       <c r="H892" t="inlineStr"/>
       <c r="I892" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J892" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -38029,12 +38029,12 @@
       <c r="H893" t="inlineStr"/>
       <c r="I893" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J893" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -38705,12 +38705,12 @@
       <c r="H909" t="inlineStr"/>
       <c r="I909" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J909" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38873,12 +38873,12 @@
       <c r="H913" t="inlineStr"/>
       <c r="I913" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J913" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39629,12 +39629,12 @@
       <c r="H931" t="inlineStr"/>
       <c r="I931" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J931" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -39717,12 +39717,12 @@
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J933" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -39759,12 +39759,12 @@
       <c r="H934" t="inlineStr"/>
       <c r="I934" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J934" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -39801,12 +39801,12 @@
       <c r="H935" t="inlineStr"/>
       <c r="I935" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J935" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -39843,12 +39843,12 @@
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J936" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -39969,12 +39969,12 @@
       <c r="H939" t="inlineStr"/>
       <c r="I939" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J939" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
